--- a/posesiones/1381293.xlsx
+++ b/posesiones/1381293.xlsx
@@ -1853,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>21</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>21</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>10</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>18</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25">
         <v>28</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>19</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>20</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>19</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R35">
         <v>5</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>15</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>15</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>10</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>28</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>21</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>8</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>15</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R52">
         <v>6</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>24</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56">
         <v>19</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>22</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>12</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R66">
         <v>20</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R68">
         <v>27</v>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>24</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R85">
         <v>20</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6020,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>7</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R91">
         <v>26</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R95">
         <v>16</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R97">
         <v>16</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R103">
         <v>31</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R104">
         <v>17</v>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R105">
         <v>4</v>
@@ -6958,10 +6958,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7096,10 +7096,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7149,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R110">
         <v>24</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R114">
         <v>31</v>
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R118">
         <v>19</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R121">
         <v>17</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R131">
         <v>27</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8654,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R141">
         <v>25</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R143">
         <v>16</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8860,7 +8860,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R145">
         <v>7</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8960,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R147">
         <v>5</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R149">
         <v>15</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R158">
         <v>32</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R160">
         <v>10</v>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R162">
         <v>17</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R164">
         <v>25</v>
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R170">
         <v>18</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R172">
         <v>10</v>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R174">
         <v>13</v>
@@ -10336,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R175">
         <v>14</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R177">
         <v>23</v>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R183">
         <v>21</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11209,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11262,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R194">
         <v>18</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11503,7 +11503,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R199">
         <v>28</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11606,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R201">
         <v>8</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11706,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R203">
         <v>15</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R205">
         <v>14</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11912,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R207">
         <v>14</v>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12015,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R209">
         <v>14</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R211">
         <v>6</v>
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R213">
         <v>26</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12506,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R219">
         <v>14</v>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R224">
         <v>12</v>
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R225">
         <v>18</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12903,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>18</v>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13191,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13332,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13379,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13429,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R238">
         <v>14</v>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13526,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R240">
         <v>6</v>
@@ -13576,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R243">
         <v>4</v>
@@ -13720,10 +13720,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13764,10 +13764,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R252">
         <v>23</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14199,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R254">
         <v>5</v>
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14299,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14440,7 +14440,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14487,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14537,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R261">
         <v>42</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14634,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14684,7 +14684,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R264">
         <v>18</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R266">
         <v>9</v>
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14931,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R270">
         <v>17</v>
@@ -15034,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R271">
         <v>9</v>
@@ -15087,7 +15087,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R272">
         <v>15</v>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R277">
         <v>30</v>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15478,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R280">
         <v>8</v>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15578,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R282">
         <v>23</v>
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R284">
         <v>18</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R287">
         <v>12</v>
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R289">
         <v>18</v>
@@ -15978,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R290">
         <v>22</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16081,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R292">
         <v>7</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16366,7 +16366,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R298">
         <v>14</v>
@@ -16416,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R300">
         <v>22</v>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16566,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16707,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16801,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16992,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R311">
         <v>26</v>
@@ -17045,7 +17045,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R312">
         <v>7</v>
@@ -17095,7 +17095,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17145,7 +17145,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17195,7 +17195,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R315">
         <v>23</v>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17292,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17339,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17577,7 +17577,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17768,7 +17768,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R327">
         <v>2</v>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17915,7 +17915,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R330">
         <v>28</v>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R331">
         <v>25</v>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18065,7 +18065,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18112,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18256,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R337">
         <v>16</v>
@@ -18309,7 +18309,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R338">
         <v>15</v>
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18500,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18597,7 +18597,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R344">
         <v>19</v>
@@ -18650,7 +18650,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18700,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R346">
         <v>12</v>
@@ -18753,7 +18753,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18850,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18900,7 +18900,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R350">
         <v>27</v>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19044,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19091,7 +19091,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19185,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19282,7 +19282,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R358">
         <v>12</v>
@@ -19335,7 +19335,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R359">
         <v>21</v>
@@ -19388,7 +19388,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R360">
         <v>6</v>
@@ -19441,7 +19441,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R361">
         <v>23</v>
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19538,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19632,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19679,7 +19679,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19870,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R370">
         <v>23</v>
@@ -19926,7 +19926,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R371">
         <v>3</v>
@@ -19970,10 +19970,10 @@
         <v>1</v>
       </c>
       <c r="P372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20020,7 +20020,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20161,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20202,10 +20202,10 @@
         <v>1</v>
       </c>
       <c r="P377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20255,7 +20255,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R378">
         <v>6</v>
@@ -20308,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20358,7 +20358,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R380">
         <v>19</v>
@@ -20411,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20461,7 +20461,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R382">
         <v>13</v>
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20561,7 +20561,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20661,7 +20661,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R386">
         <v>23</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20761,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20811,7 +20811,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20861,7 +20861,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R390">
         <v>19</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20958,7 +20958,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R392">
         <v>10</v>
@@ -21008,7 +21008,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21108,7 +21108,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R395">
         <v>31</v>
@@ -21158,7 +21158,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R396">
         <v>26</v>
@@ -21211,7 +21211,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R397">
         <v>22</v>
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21302,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21399,7 +21399,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21449,7 +21449,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R402">
         <v>31</v>
@@ -21502,7 +21502,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R403">
         <v>15</v>
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21599,7 +21599,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21646,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21693,7 +21693,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21743,7 +21743,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R408">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21840,7 +21840,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21887,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21934,7 +21934,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21981,7 +21981,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22028,7 +22028,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22078,7 +22078,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R415">
         <v>30</v>
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22178,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22225,7 +22225,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22272,7 +22272,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22316,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R421">
         <v>33</v>
@@ -22419,7 +22419,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22513,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22560,7 +22560,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22654,7 +22654,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22701,7 +22701,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22751,7 +22751,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R429">
         <v>30</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22848,7 +22848,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22898,7 +22898,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R432">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23045,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R435">
         <v>14</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23192,7 +23192,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23242,7 +23242,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R439">
         <v>16</v>
@@ -23295,7 +23295,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R440">
         <v>17</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23398,7 +23398,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R442">
         <v>9</v>
@@ -23445,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23492,7 +23492,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23586,7 +23586,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23680,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23727,7 +23727,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23824,7 +23824,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R451">
         <v>10</v>
@@ -23874,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23921,7 +23921,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23968,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24018,7 +24018,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R455">
         <v>15</v>
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24121,7 +24121,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R457">
         <v>19</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24224,7 +24224,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R459">
         <v>9</v>
@@ -24277,7 +24277,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R460">
         <v>12</v>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24377,7 +24377,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R462">
         <v>4</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24474,7 +24474,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24521,7 +24521,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24568,7 +24568,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R468">
         <v>19</v>
@@ -24718,7 +24718,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R469">
         <v>11</v>
@@ -24768,7 +24768,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24818,7 +24818,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R471">
         <v>14</v>
@@ -24871,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24921,7 +24921,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R473">
         <v>7</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25024,7 +25024,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R475">
         <v>9</v>
@@ -25074,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25124,7 +25124,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R477">
         <v>10</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25224,7 +25224,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R479">
         <v>5</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25327,7 +25327,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R481">
         <v>5</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25424,7 +25424,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25568,7 +25568,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R486">
         <v>9</v>
@@ -25621,7 +25621,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R487">
         <v>16</v>
@@ -25671,7 +25671,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25765,7 +25765,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25812,7 +25812,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25862,7 +25862,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R492">
         <v>9</v>
@@ -25915,7 +25915,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R493">
         <v>4</v>
@@ -25968,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26018,7 +26018,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R495">
         <v>6</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26118,7 +26118,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R497">
         <v>11</v>
@@ -26168,7 +26168,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26215,7 +26215,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26262,7 +26262,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26309,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26356,7 +26356,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26406,7 +26406,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R503">
         <v>1</v>
@@ -26459,7 +26459,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R504">
         <v>15</v>
@@ -26509,7 +26509,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26556,7 +26556,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26603,7 +26603,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26650,7 +26650,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26700,7 +26700,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R509">
         <v>5</v>
@@ -26753,7 +26753,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R510">
         <v>7</v>
@@ -26797,10 +26797,10 @@
         <v>1</v>
       </c>
       <c r="P511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q511">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26841,7 +26841,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
